--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mfng-Notch2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mfng-Notch2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.8821850798793</v>
+        <v>15.84401633333333</v>
       </c>
       <c r="H2">
-        <v>14.8821850798793</v>
+        <v>47.532049</v>
       </c>
       <c r="I2">
-        <v>0.745558305865044</v>
+        <v>0.7212145038223592</v>
       </c>
       <c r="J2">
-        <v>0.745558305865044</v>
+        <v>0.7256686596529557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N2">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O2">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P2">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q2">
-        <v>25.05777244240889</v>
+        <v>28.65651780152834</v>
       </c>
       <c r="R2">
-        <v>25.05777244240889</v>
+        <v>257.908660213755</v>
       </c>
       <c r="S2">
-        <v>0.009518298375798642</v>
+        <v>0.00909598068281974</v>
       </c>
       <c r="T2">
-        <v>0.009518298375798642</v>
+        <v>0.009551687972325421</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.8821850798793</v>
+        <v>15.84401633333333</v>
       </c>
       <c r="H3">
-        <v>14.8821850798793</v>
+        <v>47.532049</v>
       </c>
       <c r="I3">
-        <v>0.745558305865044</v>
+        <v>0.7212145038223592</v>
       </c>
       <c r="J3">
-        <v>0.745558305865044</v>
+        <v>0.7256686596529557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N3">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O3">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P3">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q3">
-        <v>303.0113160985113</v>
+        <v>336.7576116418297</v>
       </c>
       <c r="R3">
-        <v>303.0113160985113</v>
+        <v>3030.818504776467</v>
       </c>
       <c r="S3">
-        <v>0.1151001001584563</v>
+        <v>0.1068915892538495</v>
       </c>
       <c r="T3">
-        <v>0.1151001001584563</v>
+        <v>0.1122468420966608</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.8821850798793</v>
+        <v>15.84401633333333</v>
       </c>
       <c r="H4">
-        <v>14.8821850798793</v>
+        <v>47.532049</v>
       </c>
       <c r="I4">
-        <v>0.745558305865044</v>
+        <v>0.7212145038223592</v>
       </c>
       <c r="J4">
-        <v>0.745558305865044</v>
+        <v>0.7256686596529557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N4">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O4">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P4">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q4">
-        <v>550.6799096975291</v>
+        <v>729.7518903557722</v>
       </c>
       <c r="R4">
-        <v>550.6799096975291</v>
+        <v>6567.767013201949</v>
       </c>
       <c r="S4">
-        <v>0.2091780385549326</v>
+        <v>0.2316334854046111</v>
       </c>
       <c r="T4">
-        <v>0.2091780385549326</v>
+        <v>0.243238288830795</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.8821850798793</v>
+        <v>15.84401633333333</v>
       </c>
       <c r="H5">
-        <v>14.8821850798793</v>
+        <v>47.532049</v>
       </c>
       <c r="I5">
-        <v>0.745558305865044</v>
+        <v>0.7212145038223592</v>
       </c>
       <c r="J5">
-        <v>0.745558305865044</v>
+        <v>0.7256686596529557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N5">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O5">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P5">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q5">
-        <v>817.9580121471046</v>
+        <v>891.869265033215</v>
       </c>
       <c r="R5">
-        <v>817.9580121471046</v>
+        <v>8026.823385298935</v>
       </c>
       <c r="S5">
-        <v>0.3107047298950896</v>
+        <v>0.283091813964574</v>
       </c>
       <c r="T5">
-        <v>0.3107047298950896</v>
+        <v>0.2972746720555886</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.8821850798793</v>
+        <v>15.84401633333333</v>
       </c>
       <c r="H6">
-        <v>14.8821850798793</v>
+        <v>47.532049</v>
       </c>
       <c r="I6">
-        <v>0.745558305865044</v>
+        <v>0.7212145038223592</v>
       </c>
       <c r="J6">
-        <v>0.745558305865044</v>
+        <v>0.7256686596529557</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N6">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O6">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P6">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q6">
-        <v>266.0419635713192</v>
+        <v>285.1217247512513</v>
       </c>
       <c r="R6">
-        <v>266.0419635713192</v>
+        <v>1710.730348507508</v>
       </c>
       <c r="S6">
-        <v>0.1010571388807669</v>
+        <v>0.09050163451650474</v>
       </c>
       <c r="T6">
-        <v>0.1010571388807669</v>
+        <v>0.06335716869758591</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.04215259465138</v>
+        <v>2.951312666666666</v>
       </c>
       <c r="H7">
-        <v>2.04215259465138</v>
+        <v>8.853937999999999</v>
       </c>
       <c r="I7">
-        <v>0.1023064704956979</v>
+        <v>0.1343427989301267</v>
       </c>
       <c r="J7">
-        <v>0.1023064704956979</v>
+        <v>0.1351724879588164</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N7">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O7">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P7">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q7">
-        <v>3.438459791676249</v>
+        <v>5.337935924256667</v>
       </c>
       <c r="R7">
-        <v>3.438459791676249</v>
+        <v>48.04142331831</v>
       </c>
       <c r="S7">
-        <v>0.001306113156130757</v>
+        <v>0.001694335731558377</v>
       </c>
       <c r="T7">
-        <v>0.001306113156130757</v>
+        <v>0.001779221701600009</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.04215259465138</v>
+        <v>2.951312666666666</v>
       </c>
       <c r="H8">
-        <v>2.04215259465138</v>
+        <v>8.853937999999999</v>
       </c>
       <c r="I8">
-        <v>0.1023064704956979</v>
+        <v>0.1343427989301267</v>
       </c>
       <c r="J8">
-        <v>0.1023064704956979</v>
+        <v>0.1351724879588164</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N8">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O8">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P8">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q8">
-        <v>41.57960286463008</v>
+        <v>62.72885510373933</v>
       </c>
       <c r="R8">
-        <v>41.57960286463008</v>
+        <v>564.559695933654</v>
       </c>
       <c r="S8">
-        <v>0.01579418391328941</v>
+        <v>0.01991101843674044</v>
       </c>
       <c r="T8">
-        <v>0.01579418391328941</v>
+        <v>0.02090855752125528</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.04215259465138</v>
+        <v>2.951312666666666</v>
       </c>
       <c r="H9">
-        <v>2.04215259465138</v>
+        <v>8.853937999999999</v>
       </c>
       <c r="I9">
-        <v>0.1023064704956979</v>
+        <v>0.1343427989301267</v>
       </c>
       <c r="J9">
-        <v>0.1023064704956979</v>
+        <v>0.1351724879588164</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N9">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O9">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P9">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q9">
-        <v>75.56500610462219</v>
+        <v>135.9330836462111</v>
       </c>
       <c r="R9">
-        <v>75.56500610462219</v>
+        <v>1223.3977528159</v>
       </c>
       <c r="S9">
-        <v>0.02870367972755427</v>
+        <v>0.04314706732916841</v>
       </c>
       <c r="T9">
-        <v>0.02870367972755427</v>
+        <v>0.0453087290332035</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.04215259465138</v>
+        <v>2.951312666666666</v>
       </c>
       <c r="H10">
-        <v>2.04215259465138</v>
+        <v>8.853937999999999</v>
       </c>
       <c r="I10">
-        <v>0.1023064704956979</v>
+        <v>0.1343427989301267</v>
       </c>
       <c r="J10">
-        <v>0.1023064704956979</v>
+        <v>0.1351724879588164</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N10">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O10">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P10">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q10">
-        <v>112.2412513926108</v>
+        <v>166.13117555083</v>
       </c>
       <c r="R10">
-        <v>112.2412513926108</v>
+        <v>1495.18057995747</v>
       </c>
       <c r="S10">
-        <v>0.04263530300960747</v>
+        <v>0.0527323652542282</v>
       </c>
       <c r="T10">
-        <v>0.04263530300960747</v>
+        <v>0.05537424896937462</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.04215259465138</v>
+        <v>2.951312666666666</v>
       </c>
       <c r="H11">
-        <v>2.04215259465138</v>
+        <v>8.853937999999999</v>
       </c>
       <c r="I11">
-        <v>0.1023064704956979</v>
+        <v>0.1343427989301267</v>
       </c>
       <c r="J11">
-        <v>0.1023064704956979</v>
+        <v>0.1351724879588164</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N11">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O11">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P11">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q11">
-        <v>36.50662071981998</v>
+        <v>53.11048285338266</v>
       </c>
       <c r="R11">
-        <v>36.50662071981998</v>
+        <v>318.662897120296</v>
       </c>
       <c r="S11">
-        <v>0.01386719068911598</v>
+        <v>0.01685801217843129</v>
       </c>
       <c r="T11">
-        <v>0.01386719068911598</v>
+        <v>0.01180173073338299</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.63438993112451</v>
+        <v>2.768664</v>
       </c>
       <c r="H12">
-        <v>2.63438993112451</v>
+        <v>8.305992</v>
       </c>
       <c r="I12">
-        <v>0.1319760024146299</v>
+        <v>0.1260286906426543</v>
       </c>
       <c r="J12">
-        <v>0.1319760024146299</v>
+        <v>0.1268070324872419</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N12">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O12">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P12">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q12">
-        <v>4.435635161394363</v>
+        <v>5.00758567356</v>
       </c>
       <c r="R12">
-        <v>4.435635161394363</v>
+        <v>45.06827106204</v>
       </c>
       <c r="S12">
-        <v>0.001684894339645324</v>
+        <v>0.001589477928537339</v>
       </c>
       <c r="T12">
-        <v>0.001684894339645324</v>
+        <v>0.001669110538126206</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.63438993112451</v>
+        <v>2.768664</v>
       </c>
       <c r="H13">
-        <v>2.63438993112451</v>
+        <v>8.305992</v>
       </c>
       <c r="I13">
-        <v>0.1319760024146299</v>
+        <v>0.1260286906426543</v>
       </c>
       <c r="J13">
-        <v>0.1319760024146299</v>
+        <v>0.1268070324872419</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N13">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O13">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P13">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q13">
-        <v>53.63795409492236</v>
+        <v>58.84673787650399</v>
       </c>
       <c r="R13">
-        <v>53.63795409492236</v>
+        <v>529.6206408885359</v>
       </c>
       <c r="S13">
-        <v>0.02037459844111273</v>
+        <v>0.0186787799787415</v>
       </c>
       <c r="T13">
-        <v>0.02037459844111273</v>
+        <v>0.01961458409840753</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.63438993112451</v>
+        <v>2.768664</v>
       </c>
       <c r="H14">
-        <v>2.63438993112451</v>
+        <v>8.305992</v>
       </c>
       <c r="I14">
-        <v>0.1319760024146299</v>
+        <v>0.1260286906426543</v>
       </c>
       <c r="J14">
-        <v>0.1319760024146299</v>
+        <v>0.1268070324872419</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N14">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O14">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P14">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q14">
-        <v>97.47934201820119</v>
+        <v>127.5205569884</v>
       </c>
       <c r="R14">
-        <v>97.47934201820119</v>
+        <v>1147.6850128956</v>
       </c>
       <c r="S14">
-        <v>0.03702793075235417</v>
+        <v>0.04047681337496763</v>
       </c>
       <c r="T14">
-        <v>0.03702793075235417</v>
+        <v>0.04250469575006693</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.63438993112451</v>
+        <v>2.768664</v>
       </c>
       <c r="H15">
-        <v>2.63438993112451</v>
+        <v>8.305992</v>
       </c>
       <c r="I15">
-        <v>0.1319760024146299</v>
+        <v>0.1260286906426543</v>
       </c>
       <c r="J15">
-        <v>0.1319760024146299</v>
+        <v>0.1268070324872419</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N15">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O15">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P15">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q15">
-        <v>144.791933423558</v>
+        <v>155.84977160172</v>
       </c>
       <c r="R15">
-        <v>144.791933423558</v>
+        <v>1402.64794441548</v>
       </c>
       <c r="S15">
-        <v>0.05499981404578951</v>
+        <v>0.04946890343513783</v>
       </c>
       <c r="T15">
-        <v>0.05499981404578951</v>
+        <v>0.05194728819488389</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.63438993112451</v>
+        <v>2.768664</v>
       </c>
       <c r="H16">
-        <v>2.63438993112451</v>
+        <v>8.305992</v>
       </c>
       <c r="I16">
-        <v>0.1319760024146299</v>
+        <v>0.1260286906426543</v>
       </c>
       <c r="J16">
-        <v>0.1319760024146299</v>
+        <v>0.1268070324872419</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N16">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O16">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P16">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q16">
-        <v>47.09377462563859</v>
+        <v>49.823620370544</v>
       </c>
       <c r="R16">
-        <v>47.09377462563859</v>
+        <v>298.941722223264</v>
       </c>
       <c r="S16">
-        <v>0.0178887648357282</v>
+        <v>0.01581471592526996</v>
       </c>
       <c r="T16">
-        <v>0.0178887648357282</v>
+        <v>0.01107135390575733</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.402400803493234</v>
+        <v>0.4045285</v>
       </c>
       <c r="H17">
-        <v>0.402400803493234</v>
+        <v>0.809057</v>
       </c>
       <c r="I17">
-        <v>0.02015922122462821</v>
+        <v>0.01841400660485959</v>
       </c>
       <c r="J17">
-        <v>0.02015922122462821</v>
+        <v>0.01235181990098599</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N17">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O17">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P17">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q17">
-        <v>0.677539468193318</v>
+        <v>0.7316565394525001</v>
       </c>
       <c r="R17">
-        <v>0.677539468193318</v>
+        <v>4.389939236715001</v>
       </c>
       <c r="S17">
-        <v>0.0002573661659058457</v>
+        <v>0.0002322380477422746</v>
       </c>
       <c r="T17">
-        <v>0.0002573661659058457</v>
+        <v>0.0001625820931015553</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.402400803493234</v>
+        <v>0.4045285</v>
       </c>
       <c r="H18">
-        <v>0.402400803493234</v>
+        <v>0.809057</v>
       </c>
       <c r="I18">
-        <v>0.02015922122462821</v>
+        <v>0.01841400660485959</v>
       </c>
       <c r="J18">
-        <v>0.02015922122462821</v>
+        <v>0.01235181990098599</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N18">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O18">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P18">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q18">
-        <v>8.193151503701912</v>
+        <v>8.598075679488501</v>
       </c>
       <c r="R18">
-        <v>8.193151503701912</v>
+        <v>51.588454076931</v>
       </c>
       <c r="S18">
-        <v>0.003112202444554612</v>
+        <v>0.002729149816167774</v>
       </c>
       <c r="T18">
-        <v>0.003112202444554612</v>
+        <v>0.001910586546062807</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.402400803493234</v>
+        <v>0.4045285</v>
       </c>
       <c r="H19">
-        <v>0.402400803493234</v>
+        <v>0.809057</v>
       </c>
       <c r="I19">
-        <v>0.02015922122462821</v>
+        <v>0.01841400660485959</v>
       </c>
       <c r="J19">
-        <v>0.02015922122462821</v>
+        <v>0.01235181990098599</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N19">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O19">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P19">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q19">
-        <v>14.88988592336902</v>
+        <v>18.63198265939166</v>
       </c>
       <c r="R19">
-        <v>14.88988592336902</v>
+        <v>111.79189595635</v>
       </c>
       <c r="S19">
-        <v>0.005655984678046098</v>
+        <v>0.005914052625871392</v>
       </c>
       <c r="T19">
-        <v>0.005655984678046098</v>
+        <v>0.004140230526282942</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.402400803493234</v>
+        <v>0.4045285</v>
       </c>
       <c r="H20">
-        <v>0.402400803493234</v>
+        <v>0.809057</v>
       </c>
       <c r="I20">
-        <v>0.02015922122462821</v>
+        <v>0.01841400660485959</v>
       </c>
       <c r="J20">
-        <v>0.02015922122462821</v>
+        <v>0.01235181990098599</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N20">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O20">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P20">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q20">
-        <v>22.11684369902977</v>
+        <v>22.7711540047425</v>
       </c>
       <c r="R20">
-        <v>22.11684369902977</v>
+        <v>136.626924028455</v>
       </c>
       <c r="S20">
-        <v>0.008401174443662162</v>
+        <v>0.007227883666368022</v>
       </c>
       <c r="T20">
-        <v>0.008401174443662162</v>
+        <v>0.005059999714072465</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.402400803493234</v>
+        <v>0.4045285</v>
       </c>
       <c r="H21">
-        <v>0.402400803493234</v>
+        <v>0.809057</v>
       </c>
       <c r="I21">
-        <v>0.02015922122462821</v>
+        <v>0.01841400660485959</v>
       </c>
       <c r="J21">
-        <v>0.02015922122462821</v>
+        <v>0.01235181990098599</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N21">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O21">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P21">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q21">
-        <v>7.19353370015237</v>
+        <v>7.279711230061</v>
       </c>
       <c r="R21">
-        <v>7.19353370015237</v>
+        <v>29.118844920244</v>
       </c>
       <c r="S21">
-        <v>0.002732493492459493</v>
+        <v>0.002310682448710125</v>
       </c>
       <c r="T21">
-        <v>0.002732493492459493</v>
+        <v>0.001078421021466227</v>
       </c>
     </row>
   </sheetData>
